--- a/hourly datasets/cap_gen_year4final.xlsx
+++ b/hourly datasets/cap_gen_year4final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1110625991449294</v>
+        <v>0.1067320294967284</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001930410983114122</v>
+        <v>0.001931220187241999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002821802150430546</v>
+        <v>0.0007391134248619421</v>
       </c>
       <c r="D3" t="n">
-        <v>2.43960024012299</v>
+        <v>4.533472944071591</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1468432197348066</v>
+        <v>0.1215017266797351</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003600434668953199</v>
+        <v>0.0004825777530472764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007461256635181442</v>
+        <v>0.003379862621436722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1129930101280435</v>
+        <v>0.1086632496839704</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008410816831627723</v>
+        <v>0.01473899882116804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005755462485575863</v>
+        <v>0.001038360306544556</v>
       </c>
       <c r="D4" t="n">
-        <v>4.329740707509761</v>
+        <v>13.4161897427049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1203987812974783</v>
+        <v>0.0450062568060761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007710897388837987</v>
+        <v>0.01270384119112573</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01952246927949026</v>
+        <v>0.01677415645121035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1194734159765571</v>
+        <v>0.1214710283178964</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0191025482165588</v>
+        <v>0.02371281270418166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004954913872353865</v>
+        <v>0.002015050717453312</v>
       </c>
       <c r="D5" t="n">
-        <v>4.181088135015901</v>
+        <v>15.86525303363705</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05274233311371224</v>
+        <v>0.02119810384399553</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009578754131360209</v>
+        <v>0.01976337128720295</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02904382807818722</v>
+        <v>0.02766225412116036</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1301651473614882</v>
+        <v>0.1304448422009101</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01399601986460004</v>
+        <v>0.05352717466671876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003627113524079637</v>
+        <v>0.00882930559469961</v>
       </c>
       <c r="D6" t="n">
-        <v>2.393748061140742</v>
+        <v>11.71240800195856</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.008343826530858104</v>
+        <v>0.2235669819378172</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007026211404761134</v>
+        <v>0.03622199909801526</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02133563303531501</v>
+        <v>0.07083235023542224</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1250586190095294</v>
+        <v>0.1602592041634472</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01162262516032874</v>
+        <v>0.03054790605545981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004737442402203469</v>
+        <v>0.007279738129611572</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5756487944441775</v>
+        <v>7.743486950189914</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00802706694736869</v>
+        <v>0.09686849510714998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002961788774950628</v>
+        <v>0.01627984332713598</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02104615740557581</v>
+        <v>0.04481596878378363</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1226852243052581</v>
+        <v>0.1372799355521882</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007905669407395823</v>
+        <v>0.06546333193498356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002770673554695602</v>
+        <v>0.004290622316217816</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4377358268484084</v>
+        <v>9.519687227143299</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01908705929025097</v>
+        <v>0.0909594765957963</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00328672195909245</v>
+        <v>0.05705384216555942</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01534614005092673</v>
+        <v>0.07387282170440769</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1189682685523252</v>
+        <v>0.172195361431712</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01658550195760142</v>
+        <v>0.05587805816401457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003271276623604162</v>
+        <v>0.004192425893160631</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7392961112711953</v>
+        <v>9.58108517232893</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00187942221992099</v>
+        <v>0.1135099855942992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01222190111717391</v>
+        <v>0.04766102976985907</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02307394334211731</v>
+        <v>0.06409508655817008</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1276481011025308</v>
+        <v>0.162610087660743</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1110625991449294</v>
+        <v>-0.1067320294967284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002097788123379158</v>
+        <v>0.000620563534472687</v>
       </c>
       <c r="D10" t="n">
-        <v>-99.40167089125553</v>
+        <v>-219.7236669231151</v>
       </c>
       <c r="E10" t="n">
-        <v>4.297283003283111e-11</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1151743632035754</v>
+        <v>-0.1079483173860676</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1069508350862833</v>
+        <v>-0.1055157416073892</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05723740617363512</v>
+        <v>-0.05764776983284882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002265386903761494</v>
+        <v>0.0006668011590463343</v>
       </c>
       <c r="D11" t="n">
-        <v>-41.97339639713757</v>
+        <v>-101.7770820903605</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001838924614925217</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06167771351031964</v>
+        <v>-0.05895468212092519</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05279709883695066</v>
+        <v>-0.05634085754477245</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05382519297129423</v>
+        <v>0.04908425966387958</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04912931130764982</v>
+        <v>-0.04730157051836866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002209138449127301</v>
+        <v>0.0006651746031243923</v>
       </c>
       <c r="D12" t="n">
-        <v>-36.88061191908521</v>
+        <v>-83.14165977590672</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0236816413690155</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05345934646258983</v>
+        <v>-0.04860529488269105</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04479927615270979</v>
+        <v>-0.04599784615404628</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06193328783727954</v>
+        <v>0.05943045897835974</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04488018910111452</v>
+        <v>-0.04478056843773769</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002186291534587567</v>
+        <v>0.0006560891359623006</v>
       </c>
       <c r="D13" t="n">
-        <v>-33.65549226883227</v>
+        <v>-76.00661974230002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002237859602895147</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04916543696666947</v>
+        <v>-0.04606648549955093</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04059494123555952</v>
+        <v>-0.04349465137592445</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06618241004381484</v>
+        <v>0.06195146105899071</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0390448674899715</v>
+        <v>-0.03840347378077935</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00223322015561975</v>
+        <v>0.0006570525705733564</v>
       </c>
       <c r="D14" t="n">
-        <v>-28.29372714101545</v>
+        <v>-64.03748314297083</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0224777210738455</v>
+        <v>1.783276166231692e-252</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04342210584244149</v>
+        <v>-0.0396912791738007</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03466762913750152</v>
+        <v>-0.03711566838775799</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07201773165495787</v>
+        <v>0.06832855571594905</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.035404672372948</v>
+        <v>-0.03450124015210326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002194169257364425</v>
+        <v>0.0006470633406355668</v>
       </c>
       <c r="D15" t="n">
-        <v>-25.81550093343386</v>
+        <v>-56.80231489329345</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04837605214360078</v>
+        <v>3.409868282245064e-100</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03970538388775797</v>
+        <v>-0.03576946688869777</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03110396085813803</v>
+        <v>-0.03323301341550872</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07565792677198135</v>
+        <v>0.07223078934462515</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0308300266132033</v>
+        <v>-0.03062336409569633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00212282952388243</v>
+        <v>0.0006264685092911343</v>
       </c>
       <c r="D16" t="n">
-        <v>-23.29381048509422</v>
+        <v>-50.85524527484909</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04730875086319442</v>
+        <v>2.126299469271832e-28</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03499088660922164</v>
+        <v>-0.03185122559146743</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02666916661718496</v>
+        <v>-0.02939550259992525</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08023257253172605</v>
+        <v>0.07610866540103206</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02717718060503935</v>
+        <v>-0.02697592631395112</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002199296271670963</v>
+        <v>0.0006364843789788885</v>
       </c>
       <c r="D17" t="n">
-        <v>-20.16140477927017</v>
+        <v>-42.63446552602955</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04151880560617597</v>
+        <v>0.001428210544352365</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03148795869158282</v>
+        <v>-0.0282234186675458</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02286640251849588</v>
+        <v>-0.02572843396035644</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08388541853989001</v>
+        <v>0.07975610318277729</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0233305261758949</v>
+        <v>-0.02364257366137205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002204465739992076</v>
+        <v>0.0006417453261673837</v>
       </c>
       <c r="D18" t="n">
-        <v>-18.1404720791144</v>
+        <v>-39.10241848913063</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02846030690446306</v>
+        <v>6.141939363711622e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02765142077517537</v>
+        <v>-0.02490037736511034</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01900963157661442</v>
+        <v>-0.02238476995763376</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08773207296903446</v>
+        <v>0.08308945583535635</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02036248288238465</v>
+        <v>-0.0212238803111161</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002193045022259967</v>
+        <v>0.0006565116750686046</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.3165028922709</v>
+        <v>-35.51283786107579</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03302270099073437</v>
+        <v>5.767794762741496e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02466096715484473</v>
+        <v>-0.02251062585012075</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01606399860992456</v>
+        <v>-0.01993713477211145</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09070011626254471</v>
+        <v>0.08550814918561231</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01682086841968486</v>
+        <v>-0.01789779183669642</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002247541639588808</v>
+        <v>0.0006686760352865118</v>
       </c>
       <c r="D20" t="n">
-        <v>-14.24411884864005</v>
+        <v>-29.67776527464417</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02739227785327777</v>
+        <v>0.00644394930116758</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02122617252368273</v>
+        <v>-0.0192083792674242</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.012415564315687</v>
+        <v>-0.01658720440596864</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0942417307252445</v>
+        <v>0.08883423766003198</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01140943948075726</v>
+        <v>-0.01329161328694966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002302800173130706</v>
+        <v>0.0006935252583323473</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.55905814963645</v>
+        <v>-21.99787837730142</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02659616506805859</v>
+        <v>0.04180328025044439</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01592304902958777</v>
+        <v>-0.01465090458715945</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006895829931926748</v>
+        <v>-0.01193232198673987</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0996531596641721</v>
+        <v>0.09344041620977873</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.008277526460259929</v>
+        <v>-0.009893825314779151</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002273545829088057</v>
+        <v>0.0006773195974083565</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.575468199349174</v>
+        <v>-16.49430368660508</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07249126656010083</v>
+        <v>0.01684991611631484</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01273378015506093</v>
+        <v>-0.01122135387004944</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003821272765458917</v>
+        <v>-0.008566296759508851</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1027850726846694</v>
+        <v>0.09683820418194924</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00571174280519871</v>
+        <v>-0.005748127082400781</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002242048981847913</v>
+        <v>0.0006625870551790332</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.736353807434176</v>
+        <v>-9.597333220678442</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07603870826811344</v>
+        <v>0.03970129649341818</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01010625885947258</v>
+        <v>-0.007046780153325155</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.001317226750924839</v>
+        <v>-0.004449474011476409</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1053508563397307</v>
+        <v>0.1009839024143276</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004833458880504181</v>
+        <v>-0.001734901941562419</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002375072363672855</v>
+        <v>0.0006444367190912092</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.161058526922271</v>
+        <v>-4.604185688435824</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1006171265880559</v>
+        <v>0.002862226354514899</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.009488726667743036</v>
+        <v>-0.002997980773010808</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0001781910932653244</v>
+        <v>-0.0004718231101140314</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1062291402644252</v>
+        <v>0.104997127555166</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002263140783729001</v>
+        <v>2.396341798272552e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002385095781972036</v>
+        <v>0.0006204025367496545</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.222402744303243</v>
+        <v>-2.57339756687702</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0920845272413332</v>
+        <v>0.1187098307705495</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006938053227805073</v>
+        <v>-0.001192009003564632</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00241177166034707</v>
+        <v>0.001239935839530083</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1087994583612004</v>
+        <v>0.1067559929147111</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03070350234657343</v>
+        <v>0.068371445100081</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002187079896582888</v>
+        <v>0.001013548164169905</v>
       </c>
       <c r="D26" t="n">
-        <v>12.69110207511122</v>
+        <v>66.55032712428445</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04209015963811868</v>
+        <v>0.1000347722897597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03889088674320179</v>
+        <v>0.06638491861860862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0349064886686444</v>
+        <v>0.07035797158155337</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1417661014915028</v>
+        <v>0.1751034745968094</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year4final.xlsx
+++ b/hourly datasets/cap_gen_year4final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1067320294967284</v>
+        <v>0.1056518497821611</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001931220187241999</v>
+        <v>0.001840623814774503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007391134248619421</v>
+        <v>0.0007419689742211635</v>
       </c>
       <c r="D3" t="n">
-        <v>4.533472944071591</v>
+        <v>4.927472306122936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1215017266797351</v>
+        <v>0.1580487478232999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004825777530472764</v>
+        <v>0.000386384628715761</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003379862621436722</v>
+        <v>0.003294863000833244</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1086632496839704</v>
+        <v>0.1074924735969356</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01473899882116804</v>
+        <v>0.01383787236868874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001038360306544556</v>
+        <v>0.001040084025976918</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4161897427049</v>
+        <v>12.58603209546331</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0450062568060761</v>
+        <v>0.06993168371495594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01270384119112573</v>
+        <v>0.0117993363765284</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01677415645121035</v>
+        <v>0.01587640836084907</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1214710283178964</v>
+        <v>0.1194897221508498</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02371281270418166</v>
+        <v>0.02488366126706448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002015050717453312</v>
+        <v>0.001616383196847131</v>
       </c>
       <c r="D5" t="n">
-        <v>15.86525303363705</v>
+        <v>16.67386656790342</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02119810384399553</v>
+        <v>0.0212935156258686</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01976337128720295</v>
+        <v>0.02171559567826744</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02766225412116036</v>
+        <v>0.02805172685586154</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1304448422009101</v>
+        <v>0.1305355110492256</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05352717466671876</v>
+        <v>0.03159032902972618</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00882930559469961</v>
+        <v>0.005766019790044574</v>
       </c>
       <c r="D6" t="n">
-        <v>11.71240800195856</v>
+        <v>9.638438847101293</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2235669819378172</v>
+        <v>0.09927593669093973</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03622199909801526</v>
+        <v>0.02028909541371065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07083235023542224</v>
+        <v>0.04289156264574173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1602592041634472</v>
+        <v>0.1372421788118873</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03054790605545981</v>
+        <v>0.02532196937614315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007279738129611572</v>
+        <v>0.006456930717482241</v>
       </c>
       <c r="D7" t="n">
-        <v>7.743486950189914</v>
+        <v>5.150900368835016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09686849510714998</v>
+        <v>0.08755163941244352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01627984332713598</v>
+        <v>0.01266658002738096</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04481596878378363</v>
+        <v>0.03797735872490535</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1372799355521882</v>
+        <v>0.1309738191583042</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06546333193498356</v>
+        <v>0.06271417002420697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004290622316217816</v>
+        <v>0.006158410479249944</v>
       </c>
       <c r="D8" t="n">
-        <v>9.519687227143299</v>
+        <v>8.240217676319277</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0909594765957963</v>
+        <v>0.04196155060114482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05705384216555942</v>
+        <v>0.05064387230822315</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07387282170440769</v>
+        <v>0.07478446774019079</v>
       </c>
       <c r="H8" t="n">
-        <v>0.172195361431712</v>
+        <v>0.1683660198063681</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05587805816401457</v>
+        <v>0.05538710441270727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004192425893160631</v>
+        <v>0.007568906114875255</v>
       </c>
       <c r="D9" t="n">
-        <v>9.58108517232893</v>
+        <v>8.289465011062818</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1135099855942992</v>
+        <v>0.1635289181551405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04766102976985907</v>
+        <v>0.0405522734856742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06409508655817008</v>
+        <v>0.07022193533974033</v>
       </c>
       <c r="H9" t="n">
-        <v>0.162610087660743</v>
+        <v>0.1610389541948684</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1067320294967284</v>
+        <v>-0.1056518497821611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000620563534472687</v>
+        <v>0.0006174981686323173</v>
       </c>
       <c r="D10" t="n">
-        <v>-219.7236669231151</v>
+        <v>-221.537015933736</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1079483173860676</v>
+        <v>-0.1068621296251061</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1055157416073892</v>
+        <v>-0.1044415699392161</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05764776983284882</v>
+        <v>-0.05690585060296761</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006668011590463343</v>
+        <v>0.0006619952188087974</v>
       </c>
       <c r="D11" t="n">
-        <v>-101.7770820903605</v>
+        <v>-103.5426324868358</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05895468212092519</v>
+        <v>-0.05820334337071994</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05634085754477245</v>
+        <v>-0.05560835783521529</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04908425966387958</v>
+        <v>0.04874599917919349</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04730157051836866</v>
+        <v>-0.04615940236636606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006651746031243923</v>
+        <v>0.0006599588838898249</v>
       </c>
       <c r="D12" t="n">
-        <v>-83.14165977590672</v>
+        <v>-83.27390644264923</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4.84691682402266e-311</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04860529488269105</v>
+        <v>-0.04745290402533725</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04599784615404628</v>
+        <v>-0.04486590070739488</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05943045897835974</v>
+        <v>0.05949244741579504</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04478056843773769</v>
+        <v>-0.04395691505894615</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006560891359623006</v>
+        <v>0.000653759233570182</v>
       </c>
       <c r="D13" t="n">
-        <v>-76.00661974230002</v>
+        <v>-77.32246924967389</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04606648549955093</v>
+        <v>-0.04523826556259628</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04349465137592445</v>
+        <v>-0.04267556455529601</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06195146105899071</v>
+        <v>0.06169493472321495</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03840347378077935</v>
+        <v>-0.03787196353533801</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006570525705733564</v>
+        <v>0.0006547599483449735</v>
       </c>
       <c r="D14" t="n">
-        <v>-64.03748314297083</v>
+        <v>-64.79305381089927</v>
       </c>
       <c r="E14" t="n">
-        <v>1.783276166231692e-252</v>
+        <v>8.220006536199469e-227</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0396912791738007</v>
+        <v>-0.03915527543017516</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03711566838775799</v>
+        <v>-0.03658865164050086</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06832855571594905</v>
+        <v>0.0677798862468231</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03450124015210326</v>
+        <v>-0.03412117989349569</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006470633406355668</v>
+        <v>0.0006440352626016514</v>
       </c>
       <c r="D15" t="n">
-        <v>-56.80231489329345</v>
+        <v>-58.23411719986404</v>
       </c>
       <c r="E15" t="n">
-        <v>3.409868282245064e-100</v>
+        <v>5.510122057533206e-116</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03576946688869777</v>
+        <v>-0.03538347166973437</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03323301341550872</v>
+        <v>-0.03285888811725704</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07223078934462515</v>
+        <v>0.07153066988866541</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03062336409569633</v>
+        <v>-0.0299800536431003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006264685092911343</v>
+        <v>0.000621549234949079</v>
       </c>
       <c r="D16" t="n">
-        <v>-50.85524527484909</v>
+        <v>-52.48489244249225</v>
       </c>
       <c r="E16" t="n">
-        <v>2.126299469271832e-28</v>
+        <v>7.345848883324619e-24</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03185122559146743</v>
+        <v>-0.03119827348814017</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02939550259992525</v>
+        <v>-0.02876183379806043</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07610866540103206</v>
+        <v>0.0756717961390608</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02697592631395112</v>
+        <v>-0.02671375652325917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0006364843789788885</v>
+        <v>0.0006343972635368107</v>
       </c>
       <c r="D17" t="n">
-        <v>-42.63446552602955</v>
+        <v>-44.35055438325026</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001428210544352365</v>
+        <v>0.0544797665974282</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0282234186675458</v>
+        <v>-0.02795715815710428</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02572843396035644</v>
+        <v>-0.02547035488941408</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07975610318277729</v>
+        <v>0.07893809325890193</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02364257366137205</v>
+        <v>-0.02358989336429182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0006417453261673837</v>
+        <v>0.0006413435687265469</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.10241848913063</v>
+        <v>-40.90692914492932</v>
       </c>
       <c r="E18" t="n">
-        <v>6.141939363711622e-06</v>
+        <v>4.643519605854755e-23</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02490037736511034</v>
+        <v>-0.02484690959635365</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02238476995763376</v>
+        <v>-0.02233287713222999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08308945583535635</v>
+        <v>0.08206195641786929</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0212238803111161</v>
+        <v>-0.02111338697586235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006565116750686046</v>
+        <v>0.0006549719982576935</v>
       </c>
       <c r="D19" t="n">
-        <v>-35.51283786107579</v>
+        <v>-38.06977657612823</v>
       </c>
       <c r="E19" t="n">
-        <v>5.767794762741496e-07</v>
+        <v>6.861682457809553e-10</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02251062585012075</v>
+        <v>-0.02239711474133557</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01993713477211145</v>
+        <v>-0.01982965921038915</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08550814918561231</v>
+        <v>0.08453846280629876</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01789779183669642</v>
+        <v>-0.01733042533176627</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006686760352865118</v>
+        <v>0.0006655413015999413</v>
       </c>
       <c r="D20" t="n">
-        <v>-29.67776527464417</v>
+        <v>-31.22073888690025</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00644394930116758</v>
+        <v>0.06015804170215018</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0192083792674242</v>
+        <v>-0.01863486876996811</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01658720440596864</v>
+        <v>-0.01602598189356445</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08883423766003198</v>
+        <v>0.08832142445039483</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01329161328694966</v>
+        <v>-0.01298270673877831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006935252583323473</v>
+        <v>0.0006939513462503476</v>
       </c>
       <c r="D21" t="n">
-        <v>-21.99787837730142</v>
+        <v>-23.28472759612527</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04180328025044439</v>
+        <v>0.06806412122194527</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01465090458715945</v>
+        <v>-0.01434283311075443</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01193232198673987</v>
+        <v>-0.01162258036680219</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09344041620977873</v>
+        <v>0.09266914304338279</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009893825314779151</v>
+        <v>-0.009787778129006211</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006773195974083565</v>
+        <v>0.0006757017942056607</v>
       </c>
       <c r="D22" t="n">
-        <v>-16.49430368660508</v>
+        <v>-17.623386453057</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01684991611631484</v>
+        <v>0.001244911079417837</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01122135387004944</v>
+        <v>-0.01111213578932712</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.008566296759508851</v>
+        <v>-0.008463420468685309</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09683820418194924</v>
+        <v>0.0958640716531549</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005748127082400781</v>
+        <v>-0.005459434941699184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0006625870551790332</v>
+        <v>0.0006562460968582146</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.597333220678442</v>
+        <v>-9.719287906565565</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03970129649341818</v>
+        <v>0.06160599798075693</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007046780153325155</v>
+        <v>-0.006745659879717284</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004449474011476409</v>
+        <v>-0.004173210003681086</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1009839024143276</v>
+        <v>0.1001924148404619</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001734901941562419</v>
+        <v>-0.001649833240441533</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006444367190912092</v>
+        <v>0.0006362217703877094</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.604185688435824</v>
+        <v>-4.494250841882018</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002862226354514899</v>
+        <v>0.004542876363985699</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002997980773010808</v>
+        <v>-0.002896810971896746</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0004718231101140314</v>
+        <v>-0.0004028555089863204</v>
       </c>
       <c r="H24" t="n">
-        <v>0.104997127555166</v>
+        <v>0.1040020165417196</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.396341798272552e-05</v>
+        <v>-0.0003940774779865609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0006204025367496545</v>
+        <v>0.0006193897399837829</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.57339756687702</v>
+        <v>-3.317073759245748</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1187098307705495</v>
+        <v>0.08298662654225733</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.001192009003564632</v>
+        <v>-0.001608064829406867</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001239935839530083</v>
+        <v>0.0008199098734337449</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1067559929147111</v>
+        <v>0.1052577723041745</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.068371445100081</v>
+        <v>0.06275626802610275</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001013548164169905</v>
+        <v>0.00280091566966067</v>
       </c>
       <c r="D26" t="n">
-        <v>66.55032712428445</v>
+        <v>61.99843903116103</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1000347722897597</v>
+        <v>0.04854714845413655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06638491861860862</v>
+        <v>0.05726655443317015</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07035797158155337</v>
+        <v>0.06824598161903535</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1751034745968094</v>
+        <v>0.1684081178082639</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year4final.xlsx
+++ b/hourly datasets/cap_gen_year4final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,601 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1056518497821611</v>
+        <v>0.1377095343568505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001840623814774503</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007419689742211635</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.927472306122936</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1580487478232999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.000386384628715761</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.003294863000833244</v>
-      </c>
+        <v>0.1012450857610559</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1074924735969356</v>
+        <v>0.2389546201179064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01383787236868874</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001040084025976918</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.58603209546331</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06993168371495594</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0117993363765284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01587640836084907</v>
-      </c>
+        <v>0.1315555431808836</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1194897221508498</v>
+        <v>0.2692650775377342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02488366126706448</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.001616383196847131</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.67386656790342</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0212935156258686</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02171559567826744</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02805172685586154</v>
-      </c>
+        <v>0.04719904564454871</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1305355110492256</v>
+        <v>0.1849085800013993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03159032902972618</v>
+        <v>0.03666985272086405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005766019790044574</v>
+        <v>0.002427914833766097</v>
       </c>
       <c r="D6" t="n">
-        <v>9.638438847101293</v>
+        <v>6.455432011116011</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09927593669093973</v>
+        <v>0.008340308382778217</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02028909541371065</v>
+        <v>0.03189722022315956</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04289156264574173</v>
+        <v>0.04144248521856851</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1372421788118873</v>
+        <v>0.1743793870777146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02532196937614315</v>
+        <v>0.02289198438152038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006456930717482241</v>
+        <v>0.001304735807181999</v>
       </c>
       <c r="D7" t="n">
-        <v>5.150900368835016</v>
+        <v>3.045912587439175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08755163941244352</v>
+        <v>0.006273115159504256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01266658002738096</v>
+        <v>0.02032001257448969</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03797735872490535</v>
+        <v>0.02546395618855142</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1309738191583042</v>
+        <v>0.1606015187383709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06271417002420697</v>
+        <v>0.01921713621599344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006158410479249944</v>
+        <v>0.0009617205282464404</v>
       </c>
       <c r="D8" t="n">
-        <v>8.240217676319277</v>
+        <v>2.744718691896833</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04196155060114482</v>
+        <v>0.006802579501704882</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05064387230822315</v>
+        <v>0.01733085573299612</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07478446774019079</v>
+        <v>0.02110341669899093</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1683660198063681</v>
+        <v>0.156926670572844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05538710441270727</v>
+        <v>0.02263231422249811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007568906114875255</v>
+        <v>0.001429660622686991</v>
       </c>
       <c r="D9" t="n">
-        <v>8.289465011062818</v>
+        <v>3.197795087030468</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1635289181551405</v>
+        <v>0.003851959735859344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0405522734856742</v>
+        <v>0.01982402924643952</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07022193533974033</v>
+        <v>0.02544059919855697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1610389541948684</v>
+        <v>0.1603418485793487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1056518497821611</v>
+        <v>0.0158436734140369</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006174981686323173</v>
+        <v>0.0007894214782657399</v>
       </c>
       <c r="D10" t="n">
-        <v>-221.537015933736</v>
+        <v>2.641318343149989</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.00289359811591501</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1068621296251061</v>
+        <v>0.01429570615206656</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1044415699392161</v>
+        <v>0.01739164067600769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1535532077708874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05690585060296761</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0006619952188087974</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-103.5426324868358</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.05820334337071994</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.05560835783521529</v>
-      </c>
+        <v>0.02721153005215264</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.04874599917919349</v>
+        <v>0.1649210644090032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04615940236636606</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0006599588838898249</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-83.27390644264923</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.84691682402266e-311</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.04745290402533725</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.04486590070739488</v>
-      </c>
+        <v>0.0453527135369361</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.05949244741579504</v>
+        <v>0.1830622478937866</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.04395691505894615</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.000653759233570182</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-77.32246924967389</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.04523826556259628</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.04267556455529601</v>
-      </c>
+        <v>0.05523122138736825</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06169493472321495</v>
+        <v>0.1929407557442188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03787196353533801</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0006547599483449735</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-64.79305381089927</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.220006536199469e-227</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.03915527543017516</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.03658865164050086</v>
-      </c>
+        <v>0.05963779325700409</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.0677798862468231</v>
+        <v>0.1973473276138547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03412117989349569</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0006440352626016514</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-58.23411719986404</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.510122057533206e-116</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.03538347166973437</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.03285888811725704</v>
-      </c>
+        <v>0.06584359161236834</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07153066988866541</v>
+        <v>0.2035531259692189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0299800536431003</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.000621549234949079</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-52.48489244249225</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.345848883324619e-24</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.03119827348814017</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02876183379806043</v>
-      </c>
+        <v>0.06642068433767657</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.0756717961390608</v>
+        <v>0.2041302186945271</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02671375652325917</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0006343972635368107</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-44.35055438325026</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0544797665974282</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02795715815710428</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.02547035488941408</v>
-      </c>
+        <v>0.06961745984563861</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.07893809325890193</v>
+        <v>0.2073269942024892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02358989336429182</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0006413435687265469</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-40.90692914492932</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.643519605854755e-23</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.02484690959635365</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.02233287713222999</v>
-      </c>
+        <v>-0.1377095343568505</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08206195641786929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02111338697586235</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0006549719982576935</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-38.06977657612823</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.861682457809553e-10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.02239711474133557</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01982965921038915</v>
-      </c>
+        <v>0.07369501580304376</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08453846280629876</v>
+        <v>0.2114045501598943</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01733042533176627</v>
+        <v>0.07989904137300775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006655413015999413</v>
+        <v>0.009323590289127572</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.22073888690025</v>
+        <v>17.08110327358913</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06015804170215018</v>
+        <v>0.05002678134259963</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01863486876996811</v>
+        <v>0.06118868659668045</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01602598189356445</v>
+        <v>0.09860939614933491</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08832142445039483</v>
+        <v>0.2176085757298583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01298270673877831</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0006939513462503476</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-23.28472759612527</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.06806412122194527</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01434283311075443</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.01162258036680219</v>
-      </c>
+        <v>0.08174495998117962</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09266914304338279</v>
+        <v>0.2194544943380302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009787778129006211</v>
+        <v>0.08537210028910903</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006757017942056607</v>
+        <v>0.009182412759437082</v>
       </c>
       <c r="D22" t="n">
-        <v>-17.623386453057</v>
+        <v>470562489.1754276</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001244911079417837</v>
+        <v>0.05295314775701203</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01111213578932712</v>
+        <v>0.06720092424644253</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.008463420468685309</v>
+        <v>0.1035432763317755</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0958640716531549</v>
+        <v>0.2230816346459596</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005459434941699184</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0006562460968582146</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-9.719287906565565</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.06160599798075693</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.006745659879717284</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.004173210003681086</v>
-      </c>
+        <v>0.08863024685837688</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.1001924148404619</v>
+        <v>0.2263397812152274</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001649833240441533</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0006362217703877094</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-4.494250841882018</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.004542876363985699</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.002896810971896746</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.0004028555089863204</v>
-      </c>
+        <v>0.08648521528074525</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.1040020165417196</v>
+        <v>0.2241947496375958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0003940774779865609</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0006193897399837829</v>
+        <v>0.08633919494246828</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>-3.317073759245748</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.08298662654225733</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.001608064829406867</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.0008199098734337449</v>
-      </c>
+        <v>12.79505026064233</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.1052577723041745</v>
+        <v>0.2240487292993188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.09146668638420265</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12.76663972523117</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2291762207410532</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.09008554958452634</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-38369990296.33812</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2277950839413769</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1007321008784319</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0103751132243715</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2347579019434.459</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1262343557587475</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08027708696268863</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1211871147941748</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2384416352352825</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.06275626802610275</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.00280091566966067</v>
-      </c>
-      <c r="D26" t="n">
-        <v>61.99843903116103</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.04854714845413655</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.05726655443317015</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.06824598161903535</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1684081178082639</v>
+      <c r="B29" t="n">
+        <v>0.02261330478124937</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001187224809608595</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6330695371496.775</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005792592333185688</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02026970771169215</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02495690185080692</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1603228391380999</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year4final.xlsx
+++ b/hourly datasets/cap_gen_year4final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1377095343568505</v>
+        <v>0.09640014858912448</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1012450857610559</v>
+        <v>0.1042360274185795</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2389546201179064</v>
+        <v>0.2006361760077039</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1315555431808836</v>
+        <v>0.1327415693877952</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2692650775377342</v>
+        <v>0.2291417179769197</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04719904564454871</v>
+        <v>0.05557451227918586</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1849085800013993</v>
+        <v>0.1519746608683104</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03666985272086405</v>
+        <v>0.04807634347780593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002427914833766097</v>
+        <v>0.00483549525424892</v>
       </c>
       <c r="D6" t="n">
-        <v>6.455432011116011</v>
+        <v>6.608260337980272</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008340308382778217</v>
+        <v>0.01974750449272871</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03189722022315956</v>
+        <v>0.03857812139835367</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04144248521856851</v>
+        <v>0.05757456555725905</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1743793870777146</v>
+        <v>0.1444764920669304</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02289198438152038</v>
+        <v>0.03666292457026844</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001304735807181999</v>
+        <v>0.004477224564120189</v>
       </c>
       <c r="D7" t="n">
-        <v>3.045912587439175</v>
+        <v>3.507778098800936</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006273115159504256</v>
+        <v>0.02329402308806026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02032001257448969</v>
+        <v>0.0278539889973731</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02546395618855142</v>
+        <v>0.045471860143165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1606015187383709</v>
+        <v>0.1330630731593929</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01921713621599344</v>
+        <v>0.0324564869705281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009617205282464404</v>
+        <v>0.003516804698453915</v>
       </c>
       <c r="D8" t="n">
-        <v>2.744718691896833</v>
+        <v>3.251608481702725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006802579501704882</v>
+        <v>0.01987996194583503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01733085573299612</v>
+        <v>0.02554780295339812</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02110341669899093</v>
+        <v>0.03936517098765764</v>
       </c>
       <c r="H8" t="n">
-        <v>0.156926670572844</v>
+        <v>0.1288566355596526</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02263231422249811</v>
+        <v>0.03776673540075415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001429660622686991</v>
+        <v>0.004015835282486879</v>
       </c>
       <c r="D9" t="n">
-        <v>3.197795087030468</v>
+        <v>3.783227656605955</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003851959735859344</v>
+        <v>0.01204012986149713</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01982402924643952</v>
+        <v>0.02987344789083541</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02544059919855697</v>
+        <v>0.0456600229106744</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1603418485793487</v>
+        <v>0.1341668839898786</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0158436734140369</v>
+        <v>0.03063983820585928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007894214782657399</v>
+        <v>0.00343710494745291</v>
       </c>
       <c r="D10" t="n">
-        <v>2.641318343149989</v>
+        <v>3.200323776621989</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00289359811591501</v>
+        <v>0.01224433255601132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01429570615206656</v>
+        <v>0.02388544852430685</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01739164067600769</v>
+        <v>0.03739422788741251</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1535532077708874</v>
+        <v>0.1270399867949838</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02721153005215264</v>
+        <v>0.03041860034738776</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1649210644090032</v>
+        <v>0.1268187489365122</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0453527135369361</v>
+        <v>0.04662430579991968</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1830622478937866</v>
+        <v>0.1430244543890442</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05523122138736825</v>
+        <v>0.05929880620547275</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.1929407557442188</v>
+        <v>0.1556989547945972</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05963779325700409</v>
+        <v>0.06313924993060988</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +756,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.1973473276138547</v>
+        <v>0.1595393985197344</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06584359161236834</v>
+        <v>0.06908009376956847</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +774,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2035531259692189</v>
+        <v>0.165480242358693</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06642068433767657</v>
+        <v>0.07013845731300106</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2041302186945271</v>
+        <v>0.1665386059021255</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06961745984563861</v>
+        <v>0.07314807562362598</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +810,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2073269942024892</v>
+        <v>0.1695482242127505</v>
       </c>
     </row>
     <row r="18">
@@ -820,13 +820,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1377095343568505</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.09640014858912448</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0122303611188648</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-17.20231439914257</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06297925392800259</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1205017252643247</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.0722985719139239</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -838,7 +848,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07369501580304376</v>
+        <v>0.07642607716927302</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +856,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2114045501598943</v>
+        <v>0.1728262257583975</v>
       </c>
     </row>
     <row r="20">
@@ -856,25 +866,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07989904137300775</v>
+        <v>0.08127681172355231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009323590289127572</v>
+        <v>0.01007387060976619</v>
       </c>
       <c r="D20" t="n">
-        <v>17.08110327358913</v>
+        <v>16.69061209008504</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05002678134259963</v>
+        <v>0.04909126925379184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06118868659668045</v>
+        <v>0.06142199449032846</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09860939614933491</v>
+        <v>0.1011316289567763</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2176085757298583</v>
+        <v>0.1776769603126768</v>
       </c>
     </row>
     <row r="21">
@@ -884,7 +894,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08174495998117962</v>
+        <v>0.08462383564843402</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -892,7 +902,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2194544943380302</v>
+        <v>0.1810239842375585</v>
       </c>
     </row>
     <row r="22">
@@ -902,25 +912,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08537210028910903</v>
+        <v>0.08721080934262318</v>
       </c>
       <c r="C22" t="n">
-        <v>0.009182412759437082</v>
+        <v>0.01051495079948699</v>
       </c>
       <c r="D22" t="n">
-        <v>470562489.1754276</v>
+        <v>16.28591936377417</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05295314775701203</v>
+        <v>0.05111023187141769</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06720092424644253</v>
+        <v>0.06646040862272151</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1035432763317755</v>
+        <v>0.1079612100625253</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2230816346459596</v>
+        <v>0.1836109579317476</v>
       </c>
     </row>
     <row r="23">
@@ -930,15 +940,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.08863024685837688</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>0.09132598976443784</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0110112893770334</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3218145331650.303</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.05836741945072728</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.06958191521043852</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1130700643184372</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.2263397812152274</v>
+        <v>0.1877261383535623</v>
       </c>
     </row>
     <row r="24">
@@ -948,15 +968,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.08648521528074525</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.08908402062988305</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01087746673390756</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.99310405047447</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.06595513263659947</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.06759855770788888</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1105694835518773</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2241947496375958</v>
+        <v>0.1854841692190075</v>
       </c>
     </row>
     <row r="25">
@@ -966,21 +996,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08633919494246828</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.08947289932199931</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01060687481264844</v>
       </c>
       <c r="D25" t="n">
-        <v>12.79505026064233</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>12.76293819123774</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.070611966486368</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.06858118500825905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1103646136357392</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2240487292993188</v>
+        <v>0.1858730479111238</v>
       </c>
     </row>
     <row r="26">
@@ -990,21 +1024,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09146668638420265</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.09491631149826743</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01110838118191226</v>
       </c>
       <c r="D26" t="n">
-        <v>12.76663972523117</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>12.84564315253356</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.07355619123896143</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.07301442864616031</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1168181943503741</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2291762207410532</v>
+        <v>0.1913164600873919</v>
       </c>
     </row>
     <row r="27">
@@ -1014,21 +1052,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.09008554958452634</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.09465985696319772</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01110201127043648</v>
       </c>
       <c r="D27" t="n">
-        <v>-38369990296.33812</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>11.73945612444291</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0758936972211408</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.07277628112562902</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1165434328007666</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2277950839413769</v>
+        <v>0.1910600055523222</v>
       </c>
     </row>
     <row r="28">
@@ -1038,25 +1080,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1007321008784319</v>
+        <v>0.1040658556852016</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0103751132243715</v>
+        <v>0.01128497505878369</v>
       </c>
       <c r="D28" t="n">
-        <v>2347579019434.459</v>
+        <v>11.61687582407435</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1262343557587475</v>
+        <v>0.1250278914080156</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08027708696268863</v>
+        <v>0.08183407517647785</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1211871147941748</v>
+        <v>0.1262976361939254</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2384416352352825</v>
+        <v>0.2004660042743261</v>
       </c>
     </row>
     <row r="29">
@@ -1066,25 +1108,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02261330478124937</v>
+        <v>0.03635591221195728</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001187224809608595</v>
+        <v>0.003889794707221325</v>
       </c>
       <c r="D29" t="n">
-        <v>6330695371496.775</v>
+        <v>5.332568551475089</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005792592333185688</v>
+        <v>0.01785822230520033</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02026970771169215</v>
+        <v>0.02870167976068788</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02495690185080692</v>
+        <v>0.0440101446632265</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1603228391380999</v>
+        <v>0.1327560608010818</v>
       </c>
     </row>
   </sheetData>
